--- a/python-in-excel-dynamic-measures-demo.xlsx
+++ b/python-in-excel-dynamic-measures-demo.xlsx
@@ -8,19 +8,130 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC90276F-41F5-4251-A046-B6CDFEABE29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC2416-AEE2-4EAD-8840-FFC4F0B0D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="dynamic measures" sheetId="3" r:id="rId2"/>
+    <sheet name="helper" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="mpg_dimensions">_xlfn.ANCHORARRAY(helper!$D$3)</definedName>
+    <definedName name="operations">agg_methods[Operation]</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization userModified="1">
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>mpg_df = xl(%P2%, headers=True)
+mpg_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">mpg_selected_measure = xl(%P2%)
+mpg_selected_agg = xl(%P3%)
+getattr(mpg_df.groupby('origin')[mpg_selected_agg], mpg_selected_measure)().sort_values(ascending=False)
+</code>
+    </pythonScript>
+    <pythonScript>
+      <code>mpg_dimensions = mpg_df.select_dtypes(include=['number']).columns</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="36">
   <si>
     <t>mpg</t>
   </si>
@@ -46,938 +157,95 @@
     <t>origin</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>usa</t>
-  </si>
-  <si>
-    <t>chevrolet chevelle malibu</t>
-  </si>
-  <si>
-    <t>buick skylark 320</t>
-  </si>
-  <si>
-    <t>plymouth satellite</t>
-  </si>
-  <si>
-    <t>amc rebel sst</t>
-  </si>
-  <si>
-    <t>ford torino</t>
-  </si>
-  <si>
-    <t>ford galaxie 500</t>
-  </si>
-  <si>
-    <t>chevrolet impala</t>
-  </si>
-  <si>
-    <t>plymouth fury iii</t>
-  </si>
-  <si>
-    <t>pontiac catalina</t>
-  </si>
-  <si>
-    <t>amc ambassador dpl</t>
-  </si>
-  <si>
-    <t>dodge challenger se</t>
-  </si>
-  <si>
-    <t>plymouth 'cuda 340</t>
-  </si>
-  <si>
-    <t>chevrolet monte carlo</t>
-  </si>
-  <si>
-    <t>buick estate wagon (sw)</t>
   </si>
   <si>
     <t>japan</t>
   </si>
   <si>
-    <t>toyota corona mark ii</t>
-  </si>
-  <si>
-    <t>plymouth duster</t>
-  </si>
-  <si>
-    <t>amc hornet</t>
-  </si>
-  <si>
-    <t>ford maverick</t>
-  </si>
-  <si>
-    <t>datsun pl510</t>
-  </si>
-  <si>
     <t>europe</t>
   </si>
   <si>
-    <t>volkswagen 1131 deluxe sedan</t>
+    <t>Operation</t>
   </si>
   <si>
-    <t>peugeot 504</t>
+    <t>Method</t>
   </si>
   <si>
-    <t>audi 100 ls</t>
+    <t>Sum</t>
   </si>
   <si>
-    <t>saab 99e</t>
+    <t>Standard Deviation</t>
   </si>
   <si>
-    <t>bmw 2002</t>
+    <t>Variance</t>
   </si>
   <si>
-    <t>amc gremlin</t>
+    <t>Median</t>
   </si>
   <si>
-    <t>ford f250</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>chevy c20</t>
+    <t>Min</t>
   </si>
   <si>
-    <t>dodge d200</t>
+    <t>Max</t>
   </si>
   <si>
-    <t>hi 1200d</t>
+    <t>Count</t>
   </si>
   <si>
-    <t>chevrolet vega 2300</t>
+    <t>Choose method:</t>
   </si>
   <si>
-    <t>toyota corona</t>
+    <t>To choose dimensions:</t>
   </si>
   <si>
-    <t>ford pinto</t>
+    <t>To choose measures:</t>
   </si>
   <si>
-    <t>plymouth satellite custom</t>
+    <t>Operation selected</t>
   </si>
   <si>
-    <t>ford torino 500</t>
+    <t>Method to use</t>
   </si>
   <si>
-    <t>amc matador</t>
+    <t>sum</t>
   </si>
   <si>
-    <t>pontiac catalina brougham</t>
+    <t>mean</t>
   </si>
   <si>
-    <t>dodge monaco (sw)</t>
+    <t>min</t>
   </si>
   <si>
-    <t>ford country squire (sw)</t>
+    <t>max</t>
   </si>
   <si>
-    <t>pontiac safari (sw)</t>
+    <t>count</t>
   </si>
   <si>
-    <t>amc hornet sportabout (sw)</t>
+    <t>std</t>
   </si>
   <si>
-    <t>chevrolet vega (sw)</t>
+    <t>var</t>
   </si>
   <si>
-    <t>pontiac firebird</t>
+    <t>median</t>
   </si>
   <si>
-    <t>ford mustang</t>
+    <t>Choose measure:</t>
   </si>
   <si>
-    <t>mercury capri 2000</t>
-  </si>
-  <si>
-    <t>opel 1900</t>
-  </si>
-  <si>
-    <t>peugeot 304</t>
-  </si>
-  <si>
-    <t>fiat 124b</t>
-  </si>
-  <si>
-    <t>toyota corolla 1200</t>
-  </si>
-  <si>
-    <t>datsun 1200</t>
-  </si>
-  <si>
-    <t>volkswagen model 111</t>
-  </si>
-  <si>
-    <t>plymouth cricket</t>
-  </si>
-  <si>
-    <t>toyota corona hardtop</t>
-  </si>
-  <si>
-    <t>dodge colt hardtop</t>
-  </si>
-  <si>
-    <t>volkswagen type 3</t>
-  </si>
-  <si>
-    <t>chevrolet vega</t>
-  </si>
-  <si>
-    <t>ford pinto runabout</t>
-  </si>
-  <si>
-    <t>amc ambassador sst</t>
-  </si>
-  <si>
-    <t>mercury marquis</t>
-  </si>
-  <si>
-    <t>buick lesabre custom</t>
-  </si>
-  <si>
-    <t>oldsmobile delta 88 royale</t>
-  </si>
-  <si>
-    <t>chrysler newport royal</t>
-  </si>
-  <si>
-    <t>mazda rx2 coupe</t>
-  </si>
-  <si>
-    <t>amc matador (sw)</t>
-  </si>
-  <si>
-    <t>chevrolet chevelle concours (sw)</t>
-  </si>
-  <si>
-    <t>ford gran torino (sw)</t>
-  </si>
-  <si>
-    <t>plymouth satellite custom (sw)</t>
-  </si>
-  <si>
-    <t>volvo 145e (sw)</t>
-  </si>
-  <si>
-    <t>volkswagen 411 (sw)</t>
-  </si>
-  <si>
-    <t>peugeot 504 (sw)</t>
-  </si>
-  <si>
-    <t>renault 12 (sw)</t>
-  </si>
-  <si>
-    <t>ford pinto (sw)</t>
-  </si>
-  <si>
-    <t>datsun 510 (sw)</t>
-  </si>
-  <si>
-    <t>toyouta corona mark ii (sw)</t>
-  </si>
-  <si>
-    <t>dodge colt (sw)</t>
-  </si>
-  <si>
-    <t>toyota corolla 1600 (sw)</t>
-  </si>
-  <si>
-    <t>buick century 350</t>
-  </si>
-  <si>
-    <t>chevrolet malibu</t>
-  </si>
-  <si>
-    <t>ford gran torino</t>
-  </si>
-  <si>
-    <t>dodge coronet custom</t>
-  </si>
-  <si>
-    <t>mercury marquis brougham</t>
-  </si>
-  <si>
-    <t>chevrolet caprice classic</t>
-  </si>
-  <si>
-    <t>ford ltd</t>
-  </si>
-  <si>
-    <t>plymouth fury gran sedan</t>
-  </si>
-  <si>
-    <t>chrysler new yorker brougham</t>
-  </si>
-  <si>
-    <t>buick electra 225 custom</t>
-  </si>
-  <si>
-    <t>amc ambassador brougham</t>
-  </si>
-  <si>
-    <t>plymouth valiant</t>
-  </si>
-  <si>
-    <t>chevrolet nova custom</t>
-  </si>
-  <si>
-    <t>volkswagen super beetle</t>
-  </si>
-  <si>
-    <t>ford country</t>
-  </si>
-  <si>
-    <t>plymouth custom suburb</t>
-  </si>
-  <si>
-    <t>oldsmobile vista cruiser</t>
-  </si>
-  <si>
-    <t>toyota carina</t>
-  </si>
-  <si>
-    <t>datsun 610</t>
-  </si>
-  <si>
-    <t>maxda rx3</t>
-  </si>
-  <si>
-    <t>mercury capri v6</t>
-  </si>
-  <si>
-    <t>fiat 124 sport coupe</t>
-  </si>
-  <si>
-    <t>chevrolet monte carlo s</t>
-  </si>
-  <si>
-    <t>pontiac grand prix</t>
-  </si>
-  <si>
-    <t>fiat 128</t>
-  </si>
-  <si>
-    <t>opel manta</t>
-  </si>
-  <si>
-    <t>audi 100ls</t>
-  </si>
-  <si>
-    <t>volvo 144ea</t>
-  </si>
-  <si>
-    <t>dodge dart custom</t>
-  </si>
-  <si>
-    <t>saab 99le</t>
-  </si>
-  <si>
-    <t>toyota mark ii</t>
-  </si>
-  <si>
-    <t>oldsmobile omega</t>
-  </si>
-  <si>
-    <t>chevrolet nova</t>
-  </si>
-  <si>
-    <t>datsun b210</t>
-  </si>
-  <si>
-    <t>chevrolet chevelle malibu classic</t>
-  </si>
-  <si>
-    <t>plymouth satellite sebring</t>
-  </si>
-  <si>
-    <t>buick century luxus (sw)</t>
-  </si>
-  <si>
-    <t>dodge coronet custom (sw)</t>
-  </si>
-  <si>
-    <t>audi fox</t>
-  </si>
-  <si>
-    <t>volkswagen dasher</t>
-  </si>
-  <si>
-    <t>datsun 710</t>
-  </si>
-  <si>
-    <t>dodge colt</t>
-  </si>
-  <si>
-    <t>fiat 124 tc</t>
-  </si>
-  <si>
-    <t>honda civic</t>
-  </si>
-  <si>
-    <t>subaru</t>
-  </si>
-  <si>
-    <t>fiat x1.9</t>
-  </si>
-  <si>
-    <t>plymouth valiant custom</t>
-  </si>
-  <si>
-    <t>mercury monarch</t>
-  </si>
-  <si>
-    <t>chevrolet bel air</t>
-  </si>
-  <si>
-    <t>plymouth grand fury</t>
-  </si>
-  <si>
-    <t>buick century</t>
-  </si>
-  <si>
-    <t>chevroelt chevelle malibu</t>
-  </si>
-  <si>
-    <t>plymouth fury</t>
-  </si>
-  <si>
-    <t>buick skyhawk</t>
-  </si>
-  <si>
-    <t>chevrolet monza 2+2</t>
-  </si>
-  <si>
-    <t>ford mustang ii</t>
-  </si>
-  <si>
-    <t>toyota corolla</t>
-  </si>
-  <si>
-    <t>pontiac astro</t>
-  </si>
-  <si>
-    <t>volkswagen rabbit</t>
-  </si>
-  <si>
-    <t>amc pacer</t>
-  </si>
-  <si>
-    <t>volvo 244dl</t>
-  </si>
-  <si>
-    <t>honda civic cvcc</t>
-  </si>
-  <si>
-    <t>fiat 131</t>
-  </si>
-  <si>
-    <t>capri ii</t>
-  </si>
-  <si>
-    <t>renault 12tl</t>
-  </si>
-  <si>
-    <t>dodge coronet brougham</t>
-  </si>
-  <si>
-    <t>chevrolet chevette</t>
-  </si>
-  <si>
-    <t>chevrolet woody</t>
-  </si>
-  <si>
-    <t>vw rabbit</t>
-  </si>
-  <si>
-    <t>dodge aspen se</t>
-  </si>
-  <si>
-    <t>ford granada ghia</t>
-  </si>
-  <si>
-    <t>pontiac ventura sj</t>
-  </si>
-  <si>
-    <t>amc pacer d/l</t>
-  </si>
-  <si>
-    <t>datsun b-210</t>
-  </si>
-  <si>
-    <t>volvo 245</t>
-  </si>
-  <si>
-    <t>plymouth volare premier v8</t>
-  </si>
-  <si>
-    <t>mercedes-benz 280s</t>
-  </si>
-  <si>
-    <t>cadillac seville</t>
-  </si>
-  <si>
-    <t>chevy c10</t>
-  </si>
-  <si>
-    <t>ford f108</t>
-  </si>
-  <si>
-    <t>dodge d100</t>
-  </si>
-  <si>
-    <t>honda accord cvcc</t>
-  </si>
-  <si>
-    <t>buick opel isuzu deluxe</t>
-  </si>
-  <si>
-    <t>renault 5 gtl</t>
-  </si>
-  <si>
-    <t>plymouth arrow gs</t>
-  </si>
-  <si>
-    <t>datsun f-10 hatchback</t>
-  </si>
-  <si>
-    <t>oldsmobile cutlass supreme</t>
-  </si>
-  <si>
-    <t>dodge monaco brougham</t>
-  </si>
-  <si>
-    <t>mercury cougar brougham</t>
-  </si>
-  <si>
-    <t>chevrolet concours</t>
-  </si>
-  <si>
-    <t>buick skylark</t>
-  </si>
-  <si>
-    <t>plymouth volare custom</t>
-  </si>
-  <si>
-    <t>ford granada</t>
-  </si>
-  <si>
-    <t>pontiac grand prix lj</t>
-  </si>
-  <si>
-    <t>chevrolet monte carlo landau</t>
-  </si>
-  <si>
-    <t>chrysler cordoba</t>
-  </si>
-  <si>
-    <t>ford thunderbird</t>
-  </si>
-  <si>
-    <t>volkswagen rabbit custom</t>
-  </si>
-  <si>
-    <t>pontiac sunbird coupe</t>
-  </si>
-  <si>
-    <t>toyota corolla liftback</t>
-  </si>
-  <si>
-    <t>ford mustang ii 2+2</t>
-  </si>
-  <si>
-    <t>dodge colt m/m</t>
-  </si>
-  <si>
-    <t>subaru dl</t>
-  </si>
-  <si>
-    <t>datsun 810</t>
-  </si>
-  <si>
-    <t>bmw 320i</t>
-  </si>
-  <si>
-    <t>mazda rx-4</t>
-  </si>
-  <si>
-    <t>volkswagen rabbit custom diesel</t>
-  </si>
-  <si>
-    <t>ford fiesta</t>
-  </si>
-  <si>
-    <t>mazda glc deluxe</t>
-  </si>
-  <si>
-    <t>datsun b210 gx</t>
-  </si>
-  <si>
-    <t>oldsmobile cutlass salon brougham</t>
-  </si>
-  <si>
-    <t>dodge diplomat</t>
-  </si>
-  <si>
-    <t>mercury monarch ghia</t>
-  </si>
-  <si>
-    <t>pontiac phoenix lj</t>
-  </si>
-  <si>
-    <t>ford fairmont (auto)</t>
-  </si>
-  <si>
-    <t>ford fairmont (man)</t>
-  </si>
-  <si>
-    <t>plymouth volare</t>
-  </si>
-  <si>
-    <t>amc concord</t>
-  </si>
-  <si>
-    <t>buick century special</t>
-  </si>
-  <si>
-    <t>mercury zephyr</t>
-  </si>
-  <si>
-    <t>dodge aspen</t>
-  </si>
-  <si>
-    <t>amc concord d/l</t>
-  </si>
-  <si>
-    <t>buick regal sport coupe (turbo)</t>
-  </si>
-  <si>
-    <t>ford futura</t>
-  </si>
-  <si>
-    <t>dodge magnum xe</t>
-  </si>
-  <si>
-    <t>datsun 510</t>
-  </si>
-  <si>
-    <t>dodge omni</t>
-  </si>
-  <si>
-    <t>toyota celica gt liftback</t>
-  </si>
-  <si>
-    <t>plymouth sapporo</t>
-  </si>
-  <si>
-    <t>oldsmobile starfire sx</t>
-  </si>
-  <si>
-    <t>datsun 200-sx</t>
-  </si>
-  <si>
-    <t>audi 5000</t>
-  </si>
-  <si>
-    <t>volvo 264gl</t>
-  </si>
-  <si>
-    <t>saab 99gle</t>
-  </si>
-  <si>
-    <t>peugeot 604sl</t>
-  </si>
-  <si>
-    <t>volkswagen scirocco</t>
-  </si>
-  <si>
-    <t>honda accord lx</t>
-  </si>
-  <si>
-    <t>pontiac lemans v6</t>
-  </si>
-  <si>
-    <t>mercury zephyr 6</t>
-  </si>
-  <si>
-    <t>ford fairmont 4</t>
-  </si>
-  <si>
-    <t>amc concord dl 6</t>
-  </si>
-  <si>
-    <t>dodge aspen 6</t>
-  </si>
-  <si>
-    <t>ford ltd landau</t>
-  </si>
-  <si>
-    <t>mercury grand marquis</t>
-  </si>
-  <si>
-    <t>dodge st. regis</t>
-  </si>
-  <si>
-    <t>chevrolet malibu classic (sw)</t>
-  </si>
-  <si>
-    <t>chrysler lebaron town @ country (sw)</t>
-  </si>
-  <si>
-    <t>vw rabbit custom</t>
-  </si>
-  <si>
-    <t>maxda glc deluxe</t>
-  </si>
-  <si>
-    <t>dodge colt hatchback custom</t>
-  </si>
-  <si>
-    <t>amc spirit dl</t>
-  </si>
-  <si>
-    <t>mercedes benz 300d</t>
-  </si>
-  <si>
-    <t>cadillac eldorado</t>
-  </si>
-  <si>
-    <t>plymouth horizon</t>
-  </si>
-  <si>
-    <t>plymouth horizon tc3</t>
-  </si>
-  <si>
-    <t>datsun 210</t>
-  </si>
-  <si>
-    <t>fiat strada custom</t>
-  </si>
-  <si>
-    <t>buick skylark limited</t>
-  </si>
-  <si>
-    <t>chevrolet citation</t>
-  </si>
-  <si>
-    <t>oldsmobile omega brougham</t>
-  </si>
-  <si>
-    <t>pontiac phoenix</t>
-  </si>
-  <si>
-    <t>toyota corolla tercel</t>
-  </si>
-  <si>
-    <t>datsun 310</t>
-  </si>
-  <si>
-    <t>ford fairmont</t>
-  </si>
-  <si>
-    <t>audi 4000</t>
-  </si>
-  <si>
-    <t>toyota corona liftback</t>
-  </si>
-  <si>
-    <t>mazda 626</t>
-  </si>
-  <si>
-    <t>datsun 510 hatchback</t>
-  </si>
-  <si>
-    <t>mazda glc</t>
-  </si>
-  <si>
-    <t>vw rabbit c (diesel)</t>
-  </si>
-  <si>
-    <t>vw dasher (diesel)</t>
-  </si>
-  <si>
-    <t>audi 5000s (diesel)</t>
-  </si>
-  <si>
-    <t>mercedes-benz 240d</t>
-  </si>
-  <si>
-    <t>honda civic 1500 gl</t>
-  </si>
-  <si>
-    <t>renault lecar deluxe</t>
-  </si>
-  <si>
-    <t>vokswagen rabbit</t>
-  </si>
-  <si>
-    <t>datsun 280-zx</t>
-  </si>
-  <si>
-    <t>mazda rx-7 gs</t>
-  </si>
-  <si>
-    <t>triumph tr7 coupe</t>
-  </si>
-  <si>
-    <t>ford mustang cobra</t>
-  </si>
-  <si>
-    <t>honda accord</t>
-  </si>
-  <si>
-    <t>plymouth reliant</t>
-  </si>
-  <si>
-    <t>dodge aries wagon (sw)</t>
-  </si>
-  <si>
-    <t>toyota starlet</t>
-  </si>
-  <si>
-    <t>plymouth champ</t>
-  </si>
-  <si>
-    <t>honda civic 1300</t>
-  </si>
-  <si>
-    <t>datsun 210 mpg</t>
-  </si>
-  <si>
-    <t>toyota tercel</t>
-  </si>
-  <si>
-    <t>mazda glc 4</t>
-  </si>
-  <si>
-    <t>plymouth horizon 4</t>
-  </si>
-  <si>
-    <t>ford escort 4w</t>
-  </si>
-  <si>
-    <t>ford escort 2h</t>
-  </si>
-  <si>
-    <t>volkswagen jetta</t>
-  </si>
-  <si>
-    <t>renault 18i</t>
-  </si>
-  <si>
-    <t>honda prelude</t>
-  </si>
-  <si>
-    <t>datsun 200sx</t>
-  </si>
-  <si>
-    <t>peugeot 505s turbo diesel</t>
-  </si>
-  <si>
-    <t>volvo diesel</t>
-  </si>
-  <si>
-    <t>toyota cressida</t>
-  </si>
-  <si>
-    <t>datsun 810 maxima</t>
-  </si>
-  <si>
-    <t>oldsmobile cutlass ls</t>
-  </si>
-  <si>
-    <t>ford granada gl</t>
-  </si>
-  <si>
-    <t>chrysler lebaron salon</t>
-  </si>
-  <si>
-    <t>chevrolet cavalier</t>
-  </si>
-  <si>
-    <t>chevrolet cavalier wagon</t>
-  </si>
-  <si>
-    <t>chevrolet cavalier 2-door</t>
-  </si>
-  <si>
-    <t>pontiac j2000 se hatchback</t>
-  </si>
-  <si>
-    <t>dodge aries se</t>
-  </si>
-  <si>
-    <t>ford fairmont futura</t>
-  </si>
-  <si>
-    <t>amc concord dl</t>
-  </si>
-  <si>
-    <t>volkswagen rabbit l</t>
-  </si>
-  <si>
-    <t>mazda glc custom l</t>
-  </si>
-  <si>
-    <t>mazda glc custom</t>
-  </si>
-  <si>
-    <t>plymouth horizon miser</t>
-  </si>
-  <si>
-    <t>mercury lynx l</t>
-  </si>
-  <si>
-    <t>nissan stanza xe</t>
-  </si>
-  <si>
-    <t>honda civic (auto)</t>
-  </si>
-  <si>
-    <t>datsun 310 gx</t>
-  </si>
-  <si>
-    <t>buick century limited</t>
-  </si>
-  <si>
-    <t>oldsmobile cutlass ciera (diesel)</t>
-  </si>
-  <si>
-    <t>chrysler lebaron medallion</t>
-  </si>
-  <si>
-    <t>ford granada l</t>
-  </si>
-  <si>
-    <t>toyota celica gt</t>
-  </si>
-  <si>
-    <t>dodge charger 2.2</t>
-  </si>
-  <si>
-    <t>chevrolet camaro</t>
-  </si>
-  <si>
-    <t>ford mustang gl</t>
-  </si>
-  <si>
-    <t>vw pickup</t>
-  </si>
-  <si>
-    <t>dodge rampage</t>
-  </si>
-  <si>
-    <t>ford ranger</t>
-  </si>
-  <si>
-    <t>chevy s-10</t>
+    <t>For plot label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -1111,6 +379,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1454,8 +727,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1501,7 +777,62 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1512,6 +843,1130 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>helper!$B$19</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>#CALC!</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'dynamic measures'!$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB3A-46F3-9048-0AB7894D2998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="945464864"/>
+        <c:axId val="945463904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="945464864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945463904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="945463904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945464864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2162</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>242238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B405F8AA-8320-4A67-89B3-8F69C02E6579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="9">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">model_year</v>
+    <v t="s">origin</v>
+    <v>0</v>
+    <v>18</v>
+    <v>8</v>
+    <v>307</v>
+    <v>130</v>
+    <v>3504</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>1</v>
+    <v>15</v>
+    <v>8</v>
+    <v>350</v>
+    <v>165</v>
+    <v>3693</v>
+    <v>11.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>2</v>
+    <v>18</v>
+    <v>8</v>
+    <v>318</v>
+    <v>150</v>
+    <v>3436</v>
+    <v>11</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>3</v>
+    <v>16</v>
+    <v>8</v>
+    <v>304</v>
+    <v>150</v>
+    <v>3433</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>4</v>
+    <v>17</v>
+    <v>8</v>
+    <v>302</v>
+    <v>140</v>
+    <v>3449</v>
+    <v>10.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>393</v>
+    <v>27</v>
+    <v>4</v>
+    <v>140</v>
+    <v>86</v>
+    <v>2790</v>
+    <v>15.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>394</v>
+    <v>44</v>
+    <v>4</v>
+    <v>97</v>
+    <v>52</v>
+    <v>2130</v>
+    <v>24.6</v>
+    <v>82</v>
+    <v t="s">europe</v>
+    <v>395</v>
+    <v>32</v>
+    <v>4</v>
+    <v>135</v>
+    <v>84</v>
+    <v>2295</v>
+    <v>11.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>396</v>
+    <v>28</v>
+    <v>4</v>
+    <v>120</v>
+    <v>79</v>
+    <v>2625</v>
+    <v>18.600000000000001</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>397</v>
+    <v>31</v>
+    <v>4</v>
+    <v>119</v>
+    <v>82</v>
+    <v>2720</v>
+    <v>19.399999999999999</v>
+    <v>82</v>
+    <v t="s">usa</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      mpg  cylinders  displacement  horsepower  weight  acceleration  \
+0    18.0          8         307.0       130.0    3504          12.0   
+1    15.0          8         350.0       165.0    3693          11.5   
+2    18.0          8         318.0  ...</v>
+    <v>1</v>
+    <v>2</v>
+    <v>3</v>
+  </rv>
+  <rv s="3">
+    <v>14</v>
+  </rv>
+  <rv s="4">
+    <v>15</v>
+    <v>0</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+    <k n="provider" t="spb"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="4">
+    <spb s="0">
+      <v>398</v>
+      <v>8</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9067F8F-44E0-42BB-9A55-2F1FBCAC53D6}" name="mpg" displayName="mpg" ref="A1:H399" totalsRowShown="0">
+  <autoFilter ref="A1:H399" xr:uid="{F9067F8F-44E0-42BB-9A55-2F1FBCAC53D6}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{291C9982-62D5-4BB4-BDB3-12C912DB078D}" name="mpg"/>
+    <tableColumn id="2" xr3:uid="{C711793D-473C-40D4-9EF4-4AA7E5457C07}" name="cylinders"/>
+    <tableColumn id="3" xr3:uid="{D8929041-2F0D-408D-948F-5A1E3AC26134}" name="displacement"/>
+    <tableColumn id="4" xr3:uid="{1920EEC6-2E07-4505-9B7B-77FE13B7C532}" name="horsepower"/>
+    <tableColumn id="5" xr3:uid="{D5A9A918-C596-4430-8CD0-7E2E1F1BACA4}" name="weight"/>
+    <tableColumn id="6" xr3:uid="{071F58A4-8D44-48DA-AE66-41029657873A}" name="acceleration"/>
+    <tableColumn id="7" xr3:uid="{60F37B23-B635-4C8E-A55B-92DF74272EF5}" name="model_year"/>
+    <tableColumn id="8" xr3:uid="{4A00253F-66F7-456E-B0D0-B198230890FD}" name="origin"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8C0E97A-6542-44D1-A394-C29C6C299C36}" name="agg_methods" displayName="agg_methods" ref="A3:B11" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A3:B11" xr:uid="{C8C0E97A-6542-44D1-A394-C29C6C299C36}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{572EC583-2B89-4037-92C4-16EF6FD81744}" name="Operation" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{02B015CA-AFC0-4F03-AE09-0F55AAF80C83}" name="Method" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1811,13 +2266,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I399"/>
+  <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="2" max="2" width="9.04296875" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.76953125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1842,11 +2308,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1869,13 +2332,14 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+      <c r="J2" t="e" cm="1" vm="1">
+        <f t="array" ref="J2">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1898,13 +2362,10 @@
         <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1927,13 +2388,10 @@
         <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1956,13 +2414,10 @@
         <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1985,13 +2440,10 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>15</v>
       </c>
@@ -2014,13 +2466,10 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2043,13 +2492,10 @@
         <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>14</v>
       </c>
@@ -2072,13 +2518,10 @@
         <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2101,13 +2544,10 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>15</v>
       </c>
@@ -2130,13 +2570,10 @@
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2159,13 +2596,10 @@
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2188,13 +2622,10 @@
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2217,13 +2648,10 @@
         <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2246,13 +2674,10 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>24</v>
       </c>
@@ -2275,13 +2700,10 @@
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>22</v>
       </c>
@@ -2304,13 +2726,10 @@
         <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2333,13 +2752,10 @@
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2362,13 +2778,10 @@
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>27</v>
       </c>
@@ -2391,13 +2804,10 @@
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2420,13 +2830,10 @@
         <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2449,13 +2856,10 @@
         <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2478,13 +2882,10 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2507,13 +2908,10 @@
         <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2536,13 +2934,10 @@
         <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2565,13 +2960,10 @@
         <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2594,13 +2986,10 @@
         <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2623,13 +3012,10 @@
         <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2652,13 +3038,10 @@
         <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2681,13 +3064,10 @@
         <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2710,13 +3090,10 @@
         <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2739,13 +3116,10 @@
         <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2768,13 +3142,10 @@
         <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2794,13 +3165,10 @@
         <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2823,13 +3191,10 @@
         <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2852,13 +3217,10 @@
         <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2881,13 +3243,10 @@
         <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2910,13 +3269,10 @@
         <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2939,13 +3295,10 @@
         <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2968,13 +3321,10 @@
         <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2997,13 +3347,10 @@
         <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>14</v>
       </c>
@@ -3026,13 +3373,10 @@
         <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>14</v>
       </c>
@@ -3055,13 +3399,10 @@
         <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>12</v>
       </c>
@@ -3084,13 +3425,10 @@
         <v>71</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>13</v>
       </c>
@@ -3113,13 +3451,10 @@
         <v>71</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>13</v>
       </c>
@@ -3142,13 +3477,10 @@
         <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>18</v>
       </c>
@@ -3171,13 +3503,10 @@
         <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>22</v>
       </c>
@@ -3200,13 +3529,10 @@
         <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>19</v>
       </c>
@@ -3229,13 +3555,10 @@
         <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>18</v>
       </c>
@@ -3258,13 +3581,10 @@
         <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>23</v>
       </c>
@@ -3287,13 +3607,10 @@
         <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>28</v>
       </c>
@@ -3316,13 +3633,10 @@
         <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>30</v>
       </c>
@@ -3345,13 +3659,10 @@
         <v>71</v>
       </c>
       <c r="H53" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>30</v>
       </c>
@@ -3374,13 +3685,10 @@
         <v>71</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>31</v>
       </c>
@@ -3403,13 +3711,10 @@
         <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>35</v>
       </c>
@@ -3432,13 +3737,10 @@
         <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>27</v>
       </c>
@@ -3461,13 +3763,10 @@
         <v>71</v>
       </c>
       <c r="H57" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>26</v>
       </c>
@@ -3490,13 +3789,10 @@
         <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>24</v>
       </c>
@@ -3519,13 +3815,10 @@
         <v>72</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>25</v>
       </c>
@@ -3548,13 +3841,10 @@
         <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>23</v>
       </c>
@@ -3577,13 +3867,10 @@
         <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>20</v>
       </c>
@@ -3606,13 +3893,10 @@
         <v>72</v>
       </c>
       <c r="H62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>21</v>
       </c>
@@ -3635,13 +3919,10 @@
         <v>72</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3664,13 +3945,10 @@
         <v>72</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3693,13 +3971,10 @@
         <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3722,13 +3997,10 @@
         <v>72</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3751,13 +4023,10 @@
         <v>72</v>
       </c>
       <c r="H67" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3780,13 +4049,10 @@
         <v>72</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3809,13 +4075,10 @@
         <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3838,13 +4101,10 @@
         <v>72</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3867,13 +4127,10 @@
         <v>72</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3896,13 +4153,10 @@
         <v>72</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3925,13 +4179,10 @@
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3954,13 +4205,10 @@
         <v>72</v>
       </c>
       <c r="H74" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3983,13 +4231,10 @@
         <v>72</v>
       </c>
       <c r="H75" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>13</v>
       </c>
@@ -4012,13 +4257,10 @@
         <v>72</v>
       </c>
       <c r="H76" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>14</v>
       </c>
@@ -4041,13 +4283,10 @@
         <v>72</v>
       </c>
       <c r="H77" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>18</v>
       </c>
@@ -4070,13 +4309,10 @@
         <v>72</v>
       </c>
       <c r="H78" t="s">
-        <v>30</v>
-      </c>
-      <c r="I78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>22</v>
       </c>
@@ -4099,13 +4335,10 @@
         <v>72</v>
       </c>
       <c r="H79" t="s">
-        <v>30</v>
-      </c>
-      <c r="I79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>21</v>
       </c>
@@ -4128,13 +4361,10 @@
         <v>72</v>
       </c>
       <c r="H80" t="s">
-        <v>30</v>
-      </c>
-      <c r="I80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>26</v>
       </c>
@@ -4157,13 +4387,10 @@
         <v>72</v>
       </c>
       <c r="H81" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>22</v>
       </c>
@@ -4186,13 +4413,10 @@
         <v>72</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>28</v>
       </c>
@@ -4215,13 +4439,10 @@
         <v>72</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>23</v>
       </c>
@@ -4244,13 +4465,10 @@
         <v>72</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>28</v>
       </c>
@@ -4273,13 +4491,10 @@
         <v>72</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>27</v>
       </c>
@@ -4302,13 +4517,10 @@
         <v>72</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>13</v>
       </c>
@@ -4331,13 +4543,10 @@
         <v>73</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>14</v>
       </c>
@@ -4360,13 +4569,10 @@
         <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>13</v>
       </c>
@@ -4389,13 +4595,10 @@
         <v>73</v>
       </c>
       <c r="H89" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>14</v>
       </c>
@@ -4418,13 +4621,10 @@
         <v>73</v>
       </c>
       <c r="H90" t="s">
-        <v>9</v>
-      </c>
-      <c r="I90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>15</v>
       </c>
@@ -4447,13 +4647,10 @@
         <v>73</v>
       </c>
       <c r="H91" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>12</v>
       </c>
@@ -4476,13 +4673,10 @@
         <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>13</v>
       </c>
@@ -4505,13 +4699,10 @@
         <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>13</v>
       </c>
@@ -4534,13 +4725,10 @@
         <v>73</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>14</v>
       </c>
@@ -4563,13 +4751,10 @@
         <v>73</v>
       </c>
       <c r="H95" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>13</v>
       </c>
@@ -4592,13 +4777,10 @@
         <v>73</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>12</v>
       </c>
@@ -4621,13 +4803,10 @@
         <v>73</v>
       </c>
       <c r="H97" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>13</v>
       </c>
@@ -4650,13 +4829,10 @@
         <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>9</v>
-      </c>
-      <c r="I98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>18</v>
       </c>
@@ -4679,13 +4855,10 @@
         <v>73</v>
       </c>
       <c r="H99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>16</v>
       </c>
@@ -4708,13 +4881,10 @@
         <v>73</v>
       </c>
       <c r="H100" t="s">
-        <v>9</v>
-      </c>
-      <c r="I100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>18</v>
       </c>
@@ -4737,13 +4907,10 @@
         <v>73</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>18</v>
       </c>
@@ -4766,13 +4933,10 @@
         <v>73</v>
       </c>
       <c r="H102" t="s">
-        <v>9</v>
-      </c>
-      <c r="I102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>23</v>
       </c>
@@ -4795,13 +4959,10 @@
         <v>73</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
-      </c>
-      <c r="I103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4824,13 +4985,10 @@
         <v>73</v>
       </c>
       <c r="H104" t="s">
-        <v>30</v>
-      </c>
-      <c r="I104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4853,13 +5011,10 @@
         <v>73</v>
       </c>
       <c r="H105" t="s">
-        <v>9</v>
-      </c>
-      <c r="I105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4882,13 +5037,10 @@
         <v>73</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
-      </c>
-      <c r="I106" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4911,13 +5063,10 @@
         <v>73</v>
       </c>
       <c r="H107" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4940,13 +5089,10 @@
         <v>73</v>
       </c>
       <c r="H108" t="s">
-        <v>9</v>
-      </c>
-      <c r="I108" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>18</v>
       </c>
@@ -4969,13 +5115,10 @@
         <v>73</v>
       </c>
       <c r="H109" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>20</v>
       </c>
@@ -4998,13 +5141,10 @@
         <v>73</v>
       </c>
       <c r="H110" t="s">
-        <v>24</v>
-      </c>
-      <c r="I110" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>21</v>
       </c>
@@ -5027,13 +5167,10 @@
         <v>73</v>
       </c>
       <c r="H111" t="s">
-        <v>9</v>
-      </c>
-      <c r="I111" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>22</v>
       </c>
@@ -5056,13 +5193,10 @@
         <v>73</v>
       </c>
       <c r="H112" t="s">
-        <v>24</v>
-      </c>
-      <c r="I112" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>18</v>
       </c>
@@ -5085,13 +5219,10 @@
         <v>73</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
-      </c>
-      <c r="I113" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>19</v>
       </c>
@@ -5114,13 +5245,10 @@
         <v>73</v>
       </c>
       <c r="H114" t="s">
-        <v>9</v>
-      </c>
-      <c r="I114" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>21</v>
       </c>
@@ -5143,13 +5271,10 @@
         <v>73</v>
       </c>
       <c r="H115" t="s">
-        <v>9</v>
-      </c>
-      <c r="I115" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>26</v>
       </c>
@@ -5172,13 +5297,10 @@
         <v>73</v>
       </c>
       <c r="H116" t="s">
-        <v>30</v>
-      </c>
-      <c r="I116" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>15</v>
       </c>
@@ -5201,13 +5323,10 @@
         <v>73</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
-      </c>
-      <c r="I117" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>16</v>
       </c>
@@ -5230,13 +5349,10 @@
         <v>73</v>
       </c>
       <c r="H118" t="s">
-        <v>9</v>
-      </c>
-      <c r="I118" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>29</v>
       </c>
@@ -5259,13 +5375,10 @@
         <v>73</v>
       </c>
       <c r="H119" t="s">
-        <v>30</v>
-      </c>
-      <c r="I119" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>24</v>
       </c>
@@ -5288,13 +5401,10 @@
         <v>73</v>
       </c>
       <c r="H120" t="s">
-        <v>30</v>
-      </c>
-      <c r="I120" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>20</v>
       </c>
@@ -5317,13 +5427,10 @@
         <v>73</v>
       </c>
       <c r="H121" t="s">
-        <v>30</v>
-      </c>
-      <c r="I121" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>19</v>
       </c>
@@ -5346,13 +5453,10 @@
         <v>73</v>
       </c>
       <c r="H122" t="s">
-        <v>30</v>
-      </c>
-      <c r="I122" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>15</v>
       </c>
@@ -5375,13 +5479,10 @@
         <v>73</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I123" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>24</v>
       </c>
@@ -5404,13 +5505,10 @@
         <v>73</v>
       </c>
       <c r="H124" t="s">
-        <v>30</v>
-      </c>
-      <c r="I124" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>20</v>
       </c>
@@ -5433,13 +5531,10 @@
         <v>73</v>
       </c>
       <c r="H125" t="s">
-        <v>24</v>
-      </c>
-      <c r="I125" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>11</v>
       </c>
@@ -5462,13 +5557,10 @@
         <v>73</v>
       </c>
       <c r="H126" t="s">
-        <v>9</v>
-      </c>
-      <c r="I126" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>20</v>
       </c>
@@ -5491,13 +5583,10 @@
         <v>74</v>
       </c>
       <c r="H127" t="s">
-        <v>9</v>
-      </c>
-      <c r="I127" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>21</v>
       </c>
@@ -5517,13 +5606,10 @@
         <v>74</v>
       </c>
       <c r="H128" t="s">
-        <v>9</v>
-      </c>
-      <c r="I128" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>19</v>
       </c>
@@ -5546,13 +5632,10 @@
         <v>74</v>
       </c>
       <c r="H129" t="s">
-        <v>9</v>
-      </c>
-      <c r="I129" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>15</v>
       </c>
@@ -5575,13 +5658,10 @@
         <v>74</v>
       </c>
       <c r="H130" t="s">
-        <v>9</v>
-      </c>
-      <c r="I130" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>31</v>
       </c>
@@ -5604,13 +5684,10 @@
         <v>74</v>
       </c>
       <c r="H131" t="s">
-        <v>24</v>
-      </c>
-      <c r="I131" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>26</v>
       </c>
@@ -5633,13 +5710,10 @@
         <v>74</v>
       </c>
       <c r="H132" t="s">
-        <v>9</v>
-      </c>
-      <c r="I132" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>32</v>
       </c>
@@ -5662,13 +5736,10 @@
         <v>74</v>
       </c>
       <c r="H133" t="s">
-        <v>24</v>
-      </c>
-      <c r="I133" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>25</v>
       </c>
@@ -5691,13 +5762,10 @@
         <v>74</v>
       </c>
       <c r="H134" t="s">
-        <v>9</v>
-      </c>
-      <c r="I134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>16</v>
       </c>
@@ -5720,13 +5788,10 @@
         <v>74</v>
       </c>
       <c r="H135" t="s">
-        <v>9</v>
-      </c>
-      <c r="I135" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>16</v>
       </c>
@@ -5749,13 +5814,10 @@
         <v>74</v>
       </c>
       <c r="H136" t="s">
-        <v>9</v>
-      </c>
-      <c r="I136" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>18</v>
       </c>
@@ -5778,13 +5840,10 @@
         <v>74</v>
       </c>
       <c r="H137" t="s">
-        <v>9</v>
-      </c>
-      <c r="I137" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>16</v>
       </c>
@@ -5807,13 +5866,10 @@
         <v>74</v>
       </c>
       <c r="H138" t="s">
-        <v>9</v>
-      </c>
-      <c r="I138" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>13</v>
       </c>
@@ -5836,13 +5892,10 @@
         <v>74</v>
       </c>
       <c r="H139" t="s">
-        <v>9</v>
-      </c>
-      <c r="I139" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5865,13 +5918,10 @@
         <v>74</v>
       </c>
       <c r="H140" t="s">
-        <v>9</v>
-      </c>
-      <c r="I140" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5894,13 +5944,10 @@
         <v>74</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
-      </c>
-      <c r="I141" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5923,13 +5970,10 @@
         <v>74</v>
       </c>
       <c r="H142" t="s">
-        <v>9</v>
-      </c>
-      <c r="I142" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5952,13 +5996,10 @@
         <v>74</v>
       </c>
       <c r="H143" t="s">
-        <v>30</v>
-      </c>
-      <c r="I143" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>26</v>
       </c>
@@ -5981,13 +6022,10 @@
         <v>74</v>
       </c>
       <c r="H144" t="s">
-        <v>30</v>
-      </c>
-      <c r="I144" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>26</v>
       </c>
@@ -6010,13 +6048,10 @@
         <v>74</v>
       </c>
       <c r="H145" t="s">
-        <v>30</v>
-      </c>
-      <c r="I145" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>31</v>
       </c>
@@ -6039,13 +6074,10 @@
         <v>74</v>
       </c>
       <c r="H146" t="s">
-        <v>24</v>
-      </c>
-      <c r="I146" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>32</v>
       </c>
@@ -6068,13 +6100,10 @@
         <v>74</v>
       </c>
       <c r="H147" t="s">
-        <v>24</v>
-      </c>
-      <c r="I147" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>28</v>
       </c>
@@ -6097,13 +6126,10 @@
         <v>74</v>
       </c>
       <c r="H148" t="s">
-        <v>9</v>
-      </c>
-      <c r="I148" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>24</v>
       </c>
@@ -6126,13 +6152,10 @@
         <v>74</v>
       </c>
       <c r="H149" t="s">
-        <v>30</v>
-      </c>
-      <c r="I149" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>26</v>
       </c>
@@ -6155,13 +6178,10 @@
         <v>74</v>
       </c>
       <c r="H150" t="s">
-        <v>30</v>
-      </c>
-      <c r="I150" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>24</v>
       </c>
@@ -6184,13 +6204,10 @@
         <v>74</v>
       </c>
       <c r="H151" t="s">
-        <v>24</v>
-      </c>
-      <c r="I151" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>26</v>
       </c>
@@ -6213,13 +6230,10 @@
         <v>74</v>
       </c>
       <c r="H152" t="s">
-        <v>24</v>
-      </c>
-      <c r="I152" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>31</v>
       </c>
@@ -6242,13 +6256,10 @@
         <v>74</v>
       </c>
       <c r="H153" t="s">
-        <v>30</v>
-      </c>
-      <c r="I153" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>19</v>
       </c>
@@ -6271,13 +6282,10 @@
         <v>75</v>
       </c>
       <c r="H154" t="s">
-        <v>9</v>
-      </c>
-      <c r="I154" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>18</v>
       </c>
@@ -6300,13 +6308,10 @@
         <v>75</v>
       </c>
       <c r="H155" t="s">
-        <v>9</v>
-      </c>
-      <c r="I155" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>15</v>
       </c>
@@ -6329,13 +6334,10 @@
         <v>75</v>
       </c>
       <c r="H156" t="s">
-        <v>9</v>
-      </c>
-      <c r="I156" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>15</v>
       </c>
@@ -6358,13 +6360,10 @@
         <v>75</v>
       </c>
       <c r="H157" t="s">
-        <v>9</v>
-      </c>
-      <c r="I157" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>16</v>
       </c>
@@ -6387,13 +6386,10 @@
         <v>75</v>
       </c>
       <c r="H158" t="s">
-        <v>9</v>
-      </c>
-      <c r="I158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>15</v>
       </c>
@@ -6416,13 +6412,10 @@
         <v>75</v>
       </c>
       <c r="H159" t="s">
-        <v>9</v>
-      </c>
-      <c r="I159" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>16</v>
       </c>
@@ -6445,13 +6438,10 @@
         <v>75</v>
       </c>
       <c r="H160" t="s">
-        <v>9</v>
-      </c>
-      <c r="I160" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>14</v>
       </c>
@@ -6474,13 +6464,10 @@
         <v>75</v>
       </c>
       <c r="H161" t="s">
-        <v>9</v>
-      </c>
-      <c r="I161" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>17</v>
       </c>
@@ -6503,13 +6490,10 @@
         <v>75</v>
       </c>
       <c r="H162" t="s">
-        <v>9</v>
-      </c>
-      <c r="I162" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>16</v>
       </c>
@@ -6532,13 +6516,10 @@
         <v>75</v>
       </c>
       <c r="H163" t="s">
-        <v>9</v>
-      </c>
-      <c r="I163" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>15</v>
       </c>
@@ -6561,13 +6542,10 @@
         <v>75</v>
       </c>
       <c r="H164" t="s">
-        <v>9</v>
-      </c>
-      <c r="I164" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>18</v>
       </c>
@@ -6590,13 +6568,10 @@
         <v>75</v>
       </c>
       <c r="H165" t="s">
-        <v>9</v>
-      </c>
-      <c r="I165" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>21</v>
       </c>
@@ -6619,13 +6594,10 @@
         <v>75</v>
       </c>
       <c r="H166" t="s">
-        <v>9</v>
-      </c>
-      <c r="I166" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>20</v>
       </c>
@@ -6648,13 +6620,10 @@
         <v>75</v>
       </c>
       <c r="H167" t="s">
-        <v>9</v>
-      </c>
-      <c r="I167" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>13</v>
       </c>
@@ -6677,13 +6646,10 @@
         <v>75</v>
       </c>
       <c r="H168" t="s">
-        <v>9</v>
-      </c>
-      <c r="I168" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>29</v>
       </c>
@@ -6706,13 +6672,10 @@
         <v>75</v>
       </c>
       <c r="H169" t="s">
-        <v>24</v>
-      </c>
-      <c r="I169" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>23</v>
       </c>
@@ -6735,13 +6698,10 @@
         <v>75</v>
       </c>
       <c r="H170" t="s">
-        <v>9</v>
-      </c>
-      <c r="I170" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>20</v>
       </c>
@@ -6764,13 +6724,10 @@
         <v>75</v>
       </c>
       <c r="H171" t="s">
-        <v>9</v>
-      </c>
-      <c r="I171" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>23</v>
       </c>
@@ -6793,13 +6750,10 @@
         <v>75</v>
       </c>
       <c r="H172" t="s">
-        <v>9</v>
-      </c>
-      <c r="I172" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>24</v>
       </c>
@@ -6822,13 +6776,10 @@
         <v>75</v>
       </c>
       <c r="H173" t="s">
-        <v>24</v>
-      </c>
-      <c r="I173" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>25</v>
       </c>
@@ -6851,13 +6802,10 @@
         <v>75</v>
       </c>
       <c r="H174" t="s">
-        <v>30</v>
-      </c>
-      <c r="I174" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>24</v>
       </c>
@@ -6880,13 +6828,10 @@
         <v>75</v>
       </c>
       <c r="H175" t="s">
-        <v>24</v>
-      </c>
-      <c r="I175" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>18</v>
       </c>
@@ -6909,13 +6854,10 @@
         <v>75</v>
       </c>
       <c r="H176" t="s">
-        <v>9</v>
-      </c>
-      <c r="I176" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>29</v>
       </c>
@@ -6938,13 +6880,10 @@
         <v>75</v>
       </c>
       <c r="H177" t="s">
-        <v>30</v>
-      </c>
-      <c r="I177" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>19</v>
       </c>
@@ -6967,13 +6906,10 @@
         <v>75</v>
       </c>
       <c r="H178" t="s">
-        <v>9</v>
-      </c>
-      <c r="I178" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6996,13 +6932,10 @@
         <v>75</v>
       </c>
       <c r="H179" t="s">
-        <v>30</v>
-      </c>
-      <c r="I179" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>23</v>
       </c>
@@ -7025,13 +6958,10 @@
         <v>75</v>
       </c>
       <c r="H180" t="s">
-        <v>30</v>
-      </c>
-      <c r="I180" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>22</v>
       </c>
@@ -7054,13 +6984,10 @@
         <v>75</v>
       </c>
       <c r="H181" t="s">
-        <v>30</v>
-      </c>
-      <c r="I181" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>25</v>
       </c>
@@ -7083,13 +7010,10 @@
         <v>75</v>
       </c>
       <c r="H182" t="s">
-        <v>30</v>
-      </c>
-      <c r="I182" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>33</v>
       </c>
@@ -7112,13 +7036,10 @@
         <v>75</v>
       </c>
       <c r="H183" t="s">
-        <v>24</v>
-      </c>
-      <c r="I183" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>28</v>
       </c>
@@ -7141,13 +7062,10 @@
         <v>76</v>
       </c>
       <c r="H184" t="s">
-        <v>30</v>
-      </c>
-      <c r="I184" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>25</v>
       </c>
@@ -7170,13 +7088,10 @@
         <v>76</v>
       </c>
       <c r="H185" t="s">
-        <v>30</v>
-      </c>
-      <c r="I185" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>25</v>
       </c>
@@ -7199,13 +7114,10 @@
         <v>76</v>
       </c>
       <c r="H186" t="s">
-        <v>9</v>
-      </c>
-      <c r="I186" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>26</v>
       </c>
@@ -7228,13 +7140,10 @@
         <v>76</v>
       </c>
       <c r="H187" t="s">
-        <v>9</v>
-      </c>
-      <c r="I187" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>27</v>
       </c>
@@ -7257,13 +7166,10 @@
         <v>76</v>
       </c>
       <c r="H188" t="s">
-        <v>30</v>
-      </c>
-      <c r="I188" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -7286,13 +7192,10 @@
         <v>76</v>
       </c>
       <c r="H189" t="s">
-        <v>9</v>
-      </c>
-      <c r="I189" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>16</v>
       </c>
@@ -7315,13 +7218,10 @@
         <v>76</v>
       </c>
       <c r="H190" t="s">
-        <v>9</v>
-      </c>
-      <c r="I190" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -7344,13 +7244,10 @@
         <v>76</v>
       </c>
       <c r="H191" t="s">
-        <v>9</v>
-      </c>
-      <c r="I191" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -7373,13 +7270,10 @@
         <v>76</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
-      </c>
-      <c r="I192" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>22</v>
       </c>
@@ -7402,13 +7296,10 @@
         <v>76</v>
       </c>
       <c r="H193" t="s">
-        <v>9</v>
-      </c>
-      <c r="I193" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>22</v>
       </c>
@@ -7431,13 +7322,10 @@
         <v>76</v>
       </c>
       <c r="H194" t="s">
-        <v>9</v>
-      </c>
-      <c r="I194" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>24</v>
       </c>
@@ -7460,13 +7348,10 @@
         <v>76</v>
       </c>
       <c r="H195" t="s">
-        <v>9</v>
-      </c>
-      <c r="I195" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -7489,13 +7374,10 @@
         <v>76</v>
       </c>
       <c r="H196" t="s">
-        <v>9</v>
-      </c>
-      <c r="I196" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>29</v>
       </c>
@@ -7518,13 +7400,10 @@
         <v>76</v>
       </c>
       <c r="H197" t="s">
-        <v>9</v>
-      </c>
-      <c r="I197" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -7547,13 +7426,10 @@
         <v>76</v>
       </c>
       <c r="H198" t="s">
-        <v>9</v>
-      </c>
-      <c r="I198" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>29</v>
       </c>
@@ -7576,13 +7452,10 @@
         <v>76</v>
       </c>
       <c r="H199" t="s">
-        <v>30</v>
-      </c>
-      <c r="I199" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>33</v>
       </c>
@@ -7605,13 +7478,10 @@
         <v>76</v>
       </c>
       <c r="H200" t="s">
-        <v>24</v>
-      </c>
-      <c r="I200" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>20</v>
       </c>
@@ -7634,13 +7504,10 @@
         <v>76</v>
       </c>
       <c r="H201" t="s">
-        <v>9</v>
-      </c>
-      <c r="I201" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>18</v>
       </c>
@@ -7663,13 +7530,10 @@
         <v>76</v>
       </c>
       <c r="H202" t="s">
-        <v>9</v>
-      </c>
-      <c r="I202" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -7692,13 +7556,10 @@
         <v>76</v>
       </c>
       <c r="H203" t="s">
-        <v>9</v>
-      </c>
-      <c r="I203" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -7721,13 +7582,10 @@
         <v>76</v>
       </c>
       <c r="H204" t="s">
-        <v>9</v>
-      </c>
-      <c r="I204" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -7750,13 +7608,10 @@
         <v>76</v>
       </c>
       <c r="H205" t="s">
-        <v>30</v>
-      </c>
-      <c r="I205" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>32</v>
       </c>
@@ -7779,13 +7634,10 @@
         <v>76</v>
       </c>
       <c r="H206" t="s">
-        <v>24</v>
-      </c>
-      <c r="I206" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>28</v>
       </c>
@@ -7808,13 +7660,10 @@
         <v>76</v>
       </c>
       <c r="H207" t="s">
-        <v>24</v>
-      </c>
-      <c r="I207" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -7837,13 +7686,10 @@
         <v>76</v>
       </c>
       <c r="H208" t="s">
-        <v>9</v>
-      </c>
-      <c r="I208" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>20</v>
       </c>
@@ -7866,13 +7712,10 @@
         <v>76</v>
       </c>
       <c r="H209" t="s">
-        <v>30</v>
-      </c>
-      <c r="I209" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>13</v>
       </c>
@@ -7895,13 +7738,10 @@
         <v>76</v>
       </c>
       <c r="H210" t="s">
-        <v>9</v>
-      </c>
-      <c r="I210" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>19</v>
       </c>
@@ -7924,13 +7764,10 @@
         <v>76</v>
       </c>
       <c r="H211" t="s">
-        <v>30</v>
-      </c>
-      <c r="I211" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>19</v>
       </c>
@@ -7953,13 +7790,10 @@
         <v>76</v>
       </c>
       <c r="H212" t="s">
-        <v>24</v>
-      </c>
-      <c r="I212" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -7982,13 +7816,10 @@
         <v>76</v>
       </c>
       <c r="H213" t="s">
-        <v>30</v>
-      </c>
-      <c r="I213" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -8011,13 +7842,10 @@
         <v>76</v>
       </c>
       <c r="H214" t="s">
-        <v>9</v>
-      </c>
-      <c r="I214" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>13</v>
       </c>
@@ -8040,13 +7868,10 @@
         <v>76</v>
       </c>
       <c r="H215" t="s">
-        <v>9</v>
-      </c>
-      <c r="I215" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>13</v>
       </c>
@@ -8069,13 +7894,10 @@
         <v>76</v>
       </c>
       <c r="H216" t="s">
-        <v>9</v>
-      </c>
-      <c r="I216" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>13</v>
       </c>
@@ -8098,13 +7920,10 @@
         <v>76</v>
       </c>
       <c r="H217" t="s">
-        <v>9</v>
-      </c>
-      <c r="I217" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -8127,13 +7946,10 @@
         <v>77</v>
       </c>
       <c r="H218" t="s">
-        <v>24</v>
-      </c>
-      <c r="I218" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>30</v>
       </c>
@@ -8156,13 +7972,10 @@
         <v>77</v>
       </c>
       <c r="H219" t="s">
-        <v>9</v>
-      </c>
-      <c r="I219" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>36</v>
       </c>
@@ -8185,13 +7998,10 @@
         <v>77</v>
       </c>
       <c r="H220" t="s">
-        <v>30</v>
-      </c>
-      <c r="I220" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -8214,13 +8024,10 @@
         <v>77</v>
       </c>
       <c r="H221" t="s">
-        <v>9</v>
-      </c>
-      <c r="I221" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -8243,13 +8050,10 @@
         <v>77</v>
       </c>
       <c r="H222" t="s">
-        <v>24</v>
-      </c>
-      <c r="I222" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -8272,13 +8076,10 @@
         <v>77</v>
       </c>
       <c r="H223" t="s">
-        <v>9</v>
-      </c>
-      <c r="I223" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>17</v>
       </c>
@@ -8301,13 +8102,10 @@
         <v>77</v>
       </c>
       <c r="H224" t="s">
-        <v>9</v>
-      </c>
-      <c r="I224" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -8330,13 +8128,10 @@
         <v>77</v>
       </c>
       <c r="H225" t="s">
-        <v>9</v>
-      </c>
-      <c r="I225" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>15</v>
       </c>
@@ -8359,13 +8154,10 @@
         <v>77</v>
       </c>
       <c r="H226" t="s">
-        <v>9</v>
-      </c>
-      <c r="I226" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -8388,13 +8180,10 @@
         <v>77</v>
       </c>
       <c r="H227" t="s">
-        <v>9</v>
-      </c>
-      <c r="I227" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -8417,13 +8206,10 @@
         <v>77</v>
       </c>
       <c r="H228" t="s">
-        <v>9</v>
-      </c>
-      <c r="I228" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>19</v>
       </c>
@@ -8446,13 +8232,10 @@
         <v>77</v>
       </c>
       <c r="H229" t="s">
-        <v>9</v>
-      </c>
-      <c r="I229" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -8475,13 +8258,10 @@
         <v>77</v>
       </c>
       <c r="H230" t="s">
-        <v>9</v>
-      </c>
-      <c r="I230" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>16</v>
       </c>
@@ -8504,13 +8284,10 @@
         <v>77</v>
       </c>
       <c r="H231" t="s">
-        <v>9</v>
-      </c>
-      <c r="I231" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -8533,13 +8310,10 @@
         <v>77</v>
       </c>
       <c r="H232" t="s">
-        <v>9</v>
-      </c>
-      <c r="I232" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -8562,13 +8336,10 @@
         <v>77</v>
       </c>
       <c r="H233" t="s">
-        <v>9</v>
-      </c>
-      <c r="I233" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>16</v>
       </c>
@@ -8591,13 +8362,10 @@
         <v>77</v>
       </c>
       <c r="H234" t="s">
-        <v>9</v>
-      </c>
-      <c r="I234" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>29</v>
       </c>
@@ -8620,13 +8388,10 @@
         <v>77</v>
       </c>
       <c r="H235" t="s">
-        <v>30</v>
-      </c>
-      <c r="I235" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -8649,13 +8414,10 @@
         <v>77</v>
       </c>
       <c r="H236" t="s">
-        <v>9</v>
-      </c>
-      <c r="I236" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>26</v>
       </c>
@@ -8678,13 +8440,10 @@
         <v>77</v>
       </c>
       <c r="H237" t="s">
-        <v>24</v>
-      </c>
-      <c r="I237" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -8707,13 +8466,10 @@
         <v>77</v>
       </c>
       <c r="H238" t="s">
-        <v>9</v>
-      </c>
-      <c r="I238" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -8736,13 +8492,10 @@
         <v>77</v>
       </c>
       <c r="H239" t="s">
-        <v>9</v>
-      </c>
-      <c r="I239" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -8765,13 +8518,10 @@
         <v>77</v>
       </c>
       <c r="H240" t="s">
-        <v>9</v>
-      </c>
-      <c r="I240" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>30</v>
       </c>
@@ -8794,13 +8544,10 @@
         <v>77</v>
       </c>
       <c r="H241" t="s">
-        <v>24</v>
-      </c>
-      <c r="I241" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -8823,13 +8570,10 @@
         <v>77</v>
       </c>
       <c r="H242" t="s">
-        <v>30</v>
-      </c>
-      <c r="I242" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>22</v>
       </c>
@@ -8852,13 +8596,10 @@
         <v>77</v>
       </c>
       <c r="H243" t="s">
-        <v>24</v>
-      </c>
-      <c r="I243" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -8881,13 +8622,10 @@
         <v>77</v>
       </c>
       <c r="H244" t="s">
-        <v>30</v>
-      </c>
-      <c r="I244" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -8910,13 +8648,10 @@
         <v>77</v>
       </c>
       <c r="H245" t="s">
-        <v>24</v>
-      </c>
-      <c r="I245" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -8939,13 +8674,10 @@
         <v>78</v>
       </c>
       <c r="H246" t="s">
-        <v>30</v>
-      </c>
-      <c r="I246" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -8968,13 +8700,10 @@
         <v>78</v>
       </c>
       <c r="H247" t="s">
-        <v>9</v>
-      </c>
-      <c r="I247" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -8997,13 +8726,10 @@
         <v>78</v>
       </c>
       <c r="H248" t="s">
-        <v>24</v>
-      </c>
-      <c r="I248" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -9026,13 +8752,10 @@
         <v>78</v>
       </c>
       <c r="H249" t="s">
-        <v>24</v>
-      </c>
-      <c r="I249" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -9055,13 +8778,10 @@
         <v>78</v>
       </c>
       <c r="H250" t="s">
-        <v>24</v>
-      </c>
-      <c r="I250" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -9084,13 +8804,10 @@
         <v>78</v>
       </c>
       <c r="H251" t="s">
-        <v>9</v>
-      </c>
-      <c r="I251" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -9113,13 +8830,10 @@
         <v>78</v>
       </c>
       <c r="H252" t="s">
-        <v>9</v>
-      </c>
-      <c r="I252" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -9142,13 +8856,10 @@
         <v>78</v>
       </c>
       <c r="H253" t="s">
-        <v>9</v>
-      </c>
-      <c r="I253" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -9171,13 +8882,10 @@
         <v>78</v>
       </c>
       <c r="H254" t="s">
-        <v>9</v>
-      </c>
-      <c r="I254" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -9200,13 +8908,10 @@
         <v>78</v>
       </c>
       <c r="H255" t="s">
-        <v>9</v>
-      </c>
-      <c r="I255" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -9229,13 +8934,10 @@
         <v>78</v>
       </c>
       <c r="H256" t="s">
-        <v>9</v>
-      </c>
-      <c r="I256" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -9258,13 +8960,10 @@
         <v>78</v>
       </c>
       <c r="H257" t="s">
-        <v>9</v>
-      </c>
-      <c r="I257" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -9287,13 +8986,10 @@
         <v>78</v>
       </c>
       <c r="H258" t="s">
-        <v>9</v>
-      </c>
-      <c r="I258" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -9316,13 +9012,10 @@
         <v>78</v>
       </c>
       <c r="H259" t="s">
-        <v>9</v>
-      </c>
-      <c r="I259" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -9345,13 +9038,10 @@
         <v>78</v>
       </c>
       <c r="H260" t="s">
-        <v>9</v>
-      </c>
-      <c r="I260" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -9374,13 +9064,10 @@
         <v>78</v>
       </c>
       <c r="H261" t="s">
-        <v>9</v>
-      </c>
-      <c r="I261" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -9403,13 +9090,10 @@
         <v>78</v>
       </c>
       <c r="H262" t="s">
-        <v>9</v>
-      </c>
-      <c r="I262" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -9432,13 +9116,10 @@
         <v>78</v>
       </c>
       <c r="H263" t="s">
-        <v>9</v>
-      </c>
-      <c r="I263" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -9461,13 +9142,10 @@
         <v>78</v>
       </c>
       <c r="H264" t="s">
-        <v>9</v>
-      </c>
-      <c r="I264" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -9490,13 +9168,10 @@
         <v>78</v>
       </c>
       <c r="H265" t="s">
-        <v>9</v>
-      </c>
-      <c r="I265" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -9519,13 +9194,10 @@
         <v>78</v>
       </c>
       <c r="H266" t="s">
-        <v>9</v>
-      </c>
-      <c r="I266" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -9548,13 +9220,10 @@
         <v>78</v>
       </c>
       <c r="H267" t="s">
-        <v>9</v>
-      </c>
-      <c r="I267" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>30</v>
       </c>
@@ -9577,13 +9246,10 @@
         <v>78</v>
       </c>
       <c r="H268" t="s">
-        <v>9</v>
-      </c>
-      <c r="I268" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -9606,13 +9272,10 @@
         <v>78</v>
       </c>
       <c r="H269" t="s">
-        <v>24</v>
-      </c>
-      <c r="I269" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -9635,13 +9298,10 @@
         <v>78</v>
       </c>
       <c r="H270" t="s">
-        <v>24</v>
-      </c>
-      <c r="I270" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -9664,13 +9324,10 @@
         <v>78</v>
       </c>
       <c r="H271" t="s">
-        <v>9</v>
-      </c>
-      <c r="I271" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -9693,13 +9350,10 @@
         <v>78</v>
       </c>
       <c r="H272" t="s">
-        <v>24</v>
-      </c>
-      <c r="I272" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -9722,13 +9376,10 @@
         <v>78</v>
       </c>
       <c r="H273" t="s">
-        <v>9</v>
-      </c>
-      <c r="I273" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -9751,13 +9402,10 @@
         <v>78</v>
       </c>
       <c r="H274" t="s">
-        <v>9</v>
-      </c>
-      <c r="I274" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -9780,13 +9428,10 @@
         <v>78</v>
       </c>
       <c r="H275" t="s">
-        <v>24</v>
-      </c>
-      <c r="I275" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -9809,13 +9454,10 @@
         <v>78</v>
       </c>
       <c r="H276" t="s">
-        <v>30</v>
-      </c>
-      <c r="I276" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>17</v>
       </c>
@@ -9838,13 +9480,10 @@
         <v>78</v>
       </c>
       <c r="H277" t="s">
-        <v>30</v>
-      </c>
-      <c r="I277" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -9867,13 +9506,10 @@
         <v>78</v>
       </c>
       <c r="H278" t="s">
-        <v>30</v>
-      </c>
-      <c r="I278" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -9896,13 +9532,10 @@
         <v>78</v>
       </c>
       <c r="H279" t="s">
-        <v>30</v>
-      </c>
-      <c r="I279" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -9925,13 +9558,10 @@
         <v>78</v>
       </c>
       <c r="H280" t="s">
-        <v>30</v>
-      </c>
-      <c r="I280" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -9954,13 +9584,10 @@
         <v>78</v>
       </c>
       <c r="H281" t="s">
-        <v>24</v>
-      </c>
-      <c r="I281" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -9983,13 +9610,10 @@
         <v>79</v>
       </c>
       <c r="H282" t="s">
-        <v>9</v>
-      </c>
-      <c r="I282" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -10012,13 +9636,10 @@
         <v>79</v>
       </c>
       <c r="H283" t="s">
-        <v>9</v>
-      </c>
-      <c r="I283" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -10041,13 +9662,10 @@
         <v>79</v>
       </c>
       <c r="H284" t="s">
-        <v>9</v>
-      </c>
-      <c r="I284" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -10070,13 +9688,10 @@
         <v>79</v>
       </c>
       <c r="H285" t="s">
-        <v>9</v>
-      </c>
-      <c r="I285" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -10099,13 +9714,10 @@
         <v>79</v>
       </c>
       <c r="H286" t="s">
-        <v>9</v>
-      </c>
-      <c r="I286" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>17</v>
       </c>
@@ -10128,13 +9740,10 @@
         <v>79</v>
       </c>
       <c r="H287" t="s">
-        <v>9</v>
-      </c>
-      <c r="I287" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -10157,13 +9766,10 @@
         <v>79</v>
       </c>
       <c r="H288" t="s">
-        <v>9</v>
-      </c>
-      <c r="I288" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -10186,13 +9792,10 @@
         <v>79</v>
       </c>
       <c r="H289" t="s">
-        <v>9</v>
-      </c>
-      <c r="I289" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -10215,13 +9818,10 @@
         <v>79</v>
       </c>
       <c r="H290" t="s">
-        <v>9</v>
-      </c>
-      <c r="I290" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -10244,13 +9844,10 @@
         <v>79</v>
       </c>
       <c r="H291" t="s">
-        <v>9</v>
-      </c>
-      <c r="I291" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -10273,13 +9870,10 @@
         <v>79</v>
       </c>
       <c r="H292" t="s">
-        <v>9</v>
-      </c>
-      <c r="I292" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -10302,13 +9896,10 @@
         <v>79</v>
       </c>
       <c r="H293" t="s">
-        <v>9</v>
-      </c>
-      <c r="I293" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -10331,13 +9922,10 @@
         <v>79</v>
       </c>
       <c r="H294" t="s">
-        <v>9</v>
-      </c>
-      <c r="I294" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -10360,13 +9948,10 @@
         <v>79</v>
       </c>
       <c r="H295" t="s">
-        <v>30</v>
-      </c>
-      <c r="I295" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -10389,13 +9974,10 @@
         <v>79</v>
       </c>
       <c r="H296" t="s">
-        <v>24</v>
-      </c>
-      <c r="I296" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -10418,13 +10000,10 @@
         <v>79</v>
       </c>
       <c r="H297" t="s">
-        <v>9</v>
-      </c>
-      <c r="I297" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -10447,13 +10026,10 @@
         <v>79</v>
       </c>
       <c r="H298" t="s">
-        <v>9</v>
-      </c>
-      <c r="I298" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -10476,13 +10052,10 @@
         <v>79</v>
       </c>
       <c r="H299" t="s">
-        <v>30</v>
-      </c>
-      <c r="I299" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>23</v>
       </c>
@@ -10505,13 +10078,10 @@
         <v>79</v>
       </c>
       <c r="H300" t="s">
-        <v>9</v>
-      </c>
-      <c r="I300" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -10534,13 +10104,10 @@
         <v>79</v>
       </c>
       <c r="H301" t="s">
-        <v>30</v>
-      </c>
-      <c r="I301" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -10563,13 +10130,10 @@
         <v>79</v>
       </c>
       <c r="H302" t="s">
-        <v>9</v>
-      </c>
-      <c r="I302" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -10592,13 +10156,10 @@
         <v>79</v>
       </c>
       <c r="H303" t="s">
-        <v>9</v>
-      </c>
-      <c r="I303" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -10621,13 +10182,10 @@
         <v>79</v>
       </c>
       <c r="H304" t="s">
-        <v>9</v>
-      </c>
-      <c r="I304" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -10650,13 +10208,10 @@
         <v>79</v>
       </c>
       <c r="H305" t="s">
-        <v>24</v>
-      </c>
-      <c r="I305" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -10679,13 +10234,10 @@
         <v>79</v>
       </c>
       <c r="H306" t="s">
-        <v>30</v>
-      </c>
-      <c r="I306" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -10708,13 +10260,10 @@
         <v>79</v>
       </c>
       <c r="H307" t="s">
-        <v>9</v>
-      </c>
-      <c r="I307" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -10737,13 +10286,10 @@
         <v>79</v>
       </c>
       <c r="H308" t="s">
-        <v>9</v>
-      </c>
-      <c r="I308" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -10766,13 +10312,10 @@
         <v>79</v>
       </c>
       <c r="H309" t="s">
-        <v>9</v>
-      </c>
-      <c r="I309" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -10795,13 +10338,10 @@
         <v>79</v>
       </c>
       <c r="H310" t="s">
-        <v>9</v>
-      </c>
-      <c r="I310" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -10824,13 +10364,10 @@
         <v>80</v>
       </c>
       <c r="H311" t="s">
-        <v>30</v>
-      </c>
-      <c r="I311" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -10853,13 +10390,10 @@
         <v>80</v>
       </c>
       <c r="H312" t="s">
-        <v>24</v>
-      </c>
-      <c r="I312" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -10882,13 +10416,10 @@
         <v>80</v>
       </c>
       <c r="H313" t="s">
-        <v>9</v>
-      </c>
-      <c r="I313" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -10911,13 +10442,10 @@
         <v>80</v>
       </c>
       <c r="H314" t="s">
-        <v>24</v>
-      </c>
-      <c r="I314" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>28</v>
       </c>
@@ -10940,13 +10468,10 @@
         <v>80</v>
       </c>
       <c r="H315" t="s">
-        <v>9</v>
-      </c>
-      <c r="I315" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -10969,13 +10494,10 @@
         <v>80</v>
       </c>
       <c r="H316" t="s">
-        <v>9</v>
-      </c>
-      <c r="I316" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -10998,13 +10520,10 @@
         <v>80</v>
       </c>
       <c r="H317" t="s">
-        <v>9</v>
-      </c>
-      <c r="I317" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -11027,13 +10546,10 @@
         <v>80</v>
       </c>
       <c r="H318" t="s">
-        <v>9</v>
-      </c>
-      <c r="I318" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -11056,13 +10572,10 @@
         <v>80</v>
       </c>
       <c r="H319" t="s">
-        <v>30</v>
-      </c>
-      <c r="I319" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -11085,13 +10598,10 @@
         <v>80</v>
       </c>
       <c r="H320" t="s">
-        <v>24</v>
-      </c>
-      <c r="I320" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -11114,13 +10624,10 @@
         <v>80</v>
       </c>
       <c r="H321" t="s">
-        <v>24</v>
-      </c>
-      <c r="I321" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>37</v>
       </c>
@@ -11143,13 +10650,10 @@
         <v>80</v>
       </c>
       <c r="H322" t="s">
-        <v>24</v>
-      </c>
-      <c r="I322" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -11172,13 +10676,10 @@
         <v>80</v>
       </c>
       <c r="H323" t="s">
-        <v>24</v>
-      </c>
-      <c r="I323" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -11201,13 +10702,10 @@
         <v>80</v>
       </c>
       <c r="H324" t="s">
-        <v>24</v>
-      </c>
-      <c r="I324" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -11230,13 +10728,10 @@
         <v>80</v>
       </c>
       <c r="H325" t="s">
-        <v>9</v>
-      </c>
-      <c r="I325" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -11259,13 +10754,10 @@
         <v>80</v>
       </c>
       <c r="H326" t="s">
-        <v>24</v>
-      </c>
-      <c r="I326" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -11288,13 +10780,10 @@
         <v>80</v>
       </c>
       <c r="H327" t="s">
-        <v>30</v>
-      </c>
-      <c r="I327" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -11317,13 +10806,10 @@
         <v>80</v>
       </c>
       <c r="H328" t="s">
-        <v>30</v>
-      </c>
-      <c r="I328" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -11346,13 +10832,10 @@
         <v>80</v>
       </c>
       <c r="H329" t="s">
-        <v>30</v>
-      </c>
-      <c r="I329" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>30</v>
       </c>
@@ -11375,13 +10858,10 @@
         <v>80</v>
       </c>
       <c r="H330" t="s">
-        <v>30</v>
-      </c>
-      <c r="I330" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -11404,13 +10884,10 @@
         <v>80</v>
       </c>
       <c r="H331" t="s">
-        <v>24</v>
-      </c>
-      <c r="I331" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -11430,13 +10907,10 @@
         <v>80</v>
       </c>
       <c r="H332" t="s">
-        <v>30</v>
-      </c>
-      <c r="I332" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -11459,13 +10933,10 @@
         <v>80</v>
       </c>
       <c r="H333" t="s">
-        <v>24</v>
-      </c>
-      <c r="I333" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -11488,13 +10959,10 @@
         <v>80</v>
       </c>
       <c r="H334" t="s">
-        <v>30</v>
-      </c>
-      <c r="I334" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -11517,13 +10985,10 @@
         <v>80</v>
       </c>
       <c r="H335" t="s">
-        <v>24</v>
-      </c>
-      <c r="I335" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -11546,13 +11011,10 @@
         <v>80</v>
       </c>
       <c r="H336" t="s">
-        <v>24</v>
-      </c>
-      <c r="I336" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>35</v>
       </c>
@@ -11575,13 +11037,10 @@
         <v>80</v>
       </c>
       <c r="H337" t="s">
-        <v>30</v>
-      </c>
-      <c r="I337" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -11601,13 +11060,10 @@
         <v>80</v>
       </c>
       <c r="H338" t="s">
-        <v>9</v>
-      </c>
-      <c r="I338" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -11630,13 +11086,10 @@
         <v>80</v>
       </c>
       <c r="H339" t="s">
-        <v>24</v>
-      </c>
-      <c r="I339" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -11659,13 +11112,10 @@
         <v>81</v>
       </c>
       <c r="H340" t="s">
-        <v>9</v>
-      </c>
-      <c r="I340" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -11688,13 +11138,10 @@
         <v>81</v>
       </c>
       <c r="H341" t="s">
-        <v>9</v>
-      </c>
-      <c r="I341" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -11717,13 +11164,10 @@
         <v>81</v>
       </c>
       <c r="H342" t="s">
-        <v>9</v>
-      </c>
-      <c r="I342" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -11746,13 +11190,10 @@
         <v>81</v>
       </c>
       <c r="H343" t="s">
-        <v>9</v>
-      </c>
-      <c r="I343" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>30</v>
       </c>
@@ -11775,13 +11216,10 @@
         <v>81</v>
       </c>
       <c r="H344" t="s">
-        <v>9</v>
-      </c>
-      <c r="I344" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -11804,13 +11242,10 @@
         <v>81</v>
       </c>
       <c r="H345" t="s">
-        <v>24</v>
-      </c>
-      <c r="I345" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>39</v>
       </c>
@@ -11833,13 +11268,10 @@
         <v>81</v>
       </c>
       <c r="H346" t="s">
-        <v>9</v>
-      </c>
-      <c r="I346" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -11862,13 +11294,10 @@
         <v>81</v>
       </c>
       <c r="H347" t="s">
-        <v>24</v>
-      </c>
-      <c r="I347" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -11891,13 +11320,10 @@
         <v>81</v>
       </c>
       <c r="H348" t="s">
-        <v>24</v>
-      </c>
-      <c r="I348" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>37</v>
       </c>
@@ -11920,13 +11346,10 @@
         <v>81</v>
       </c>
       <c r="H349" t="s">
-        <v>24</v>
-      </c>
-      <c r="I349" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -11949,13 +11372,10 @@
         <v>81</v>
       </c>
       <c r="H350" t="s">
-        <v>24</v>
-      </c>
-      <c r="I350" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -11978,13 +11398,10 @@
         <v>81</v>
       </c>
       <c r="H351" t="s">
-        <v>24</v>
-      </c>
-      <c r="I351" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -12007,13 +11424,10 @@
         <v>81</v>
       </c>
       <c r="H352" t="s">
-        <v>9</v>
-      </c>
-      <c r="I352" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -12036,13 +11450,10 @@
         <v>81</v>
       </c>
       <c r="H353" t="s">
-        <v>9</v>
-      </c>
-      <c r="I353" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -12065,13 +11476,10 @@
         <v>81</v>
       </c>
       <c r="H354" t="s">
-        <v>9</v>
-      </c>
-      <c r="I354" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>33</v>
       </c>
@@ -12094,13 +11502,10 @@
         <v>81</v>
       </c>
       <c r="H355" t="s">
-        <v>30</v>
-      </c>
-      <c r="I355" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -12120,13 +11525,10 @@
         <v>81</v>
       </c>
       <c r="H356" t="s">
-        <v>30</v>
-      </c>
-      <c r="I356" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -12149,13 +11551,10 @@
         <v>81</v>
       </c>
       <c r="H357" t="s">
-        <v>24</v>
-      </c>
-      <c r="I357" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -12178,13 +11577,10 @@
         <v>81</v>
       </c>
       <c r="H358" t="s">
-        <v>24</v>
-      </c>
-      <c r="I358" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -12207,13 +11603,10 @@
         <v>81</v>
       </c>
       <c r="H359" t="s">
-        <v>24</v>
-      </c>
-      <c r="I359" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -12236,13 +11629,10 @@
         <v>81</v>
       </c>
       <c r="H360" t="s">
-        <v>24</v>
-      </c>
-      <c r="I360" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -12265,13 +11655,10 @@
         <v>81</v>
       </c>
       <c r="H361" t="s">
-        <v>30</v>
-      </c>
-      <c r="I361" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -12294,13 +11681,10 @@
         <v>81</v>
       </c>
       <c r="H362" t="s">
-        <v>30</v>
-      </c>
-      <c r="I362" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -12323,13 +11707,10 @@
         <v>81</v>
       </c>
       <c r="H363" t="s">
-        <v>24</v>
-      </c>
-      <c r="I363" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -12352,13 +11733,10 @@
         <v>81</v>
       </c>
       <c r="H364" t="s">
-        <v>24</v>
-      </c>
-      <c r="I364" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -12381,13 +11759,10 @@
         <v>81</v>
       </c>
       <c r="H365" t="s">
-        <v>9</v>
-      </c>
-      <c r="I365" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -12410,13 +11785,10 @@
         <v>81</v>
       </c>
       <c r="H366" t="s">
-        <v>9</v>
-      </c>
-      <c r="I366" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -12439,13 +11811,10 @@
         <v>81</v>
       </c>
       <c r="H367" t="s">
-        <v>9</v>
-      </c>
-      <c r="I367" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -12468,13 +11837,10 @@
         <v>81</v>
       </c>
       <c r="H368" t="s">
-        <v>9</v>
-      </c>
-      <c r="I368" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>28</v>
       </c>
@@ -12497,13 +11863,10 @@
         <v>82</v>
       </c>
       <c r="H369" t="s">
-        <v>9</v>
-      </c>
-      <c r="I369" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>27</v>
       </c>
@@ -12526,13 +11889,10 @@
         <v>82</v>
       </c>
       <c r="H370" t="s">
-        <v>9</v>
-      </c>
-      <c r="I370" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>34</v>
       </c>
@@ -12555,13 +11915,10 @@
         <v>82</v>
       </c>
       <c r="H371" t="s">
-        <v>9</v>
-      </c>
-      <c r="I371" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>31</v>
       </c>
@@ -12584,13 +11941,10 @@
         <v>82</v>
       </c>
       <c r="H372" t="s">
-        <v>9</v>
-      </c>
-      <c r="I372" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>29</v>
       </c>
@@ -12613,13 +11967,10 @@
         <v>82</v>
       </c>
       <c r="H373" t="s">
-        <v>9</v>
-      </c>
-      <c r="I373" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>27</v>
       </c>
@@ -12642,13 +11993,10 @@
         <v>82</v>
       </c>
       <c r="H374" t="s">
-        <v>9</v>
-      </c>
-      <c r="I374" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>24</v>
       </c>
@@ -12671,13 +12019,10 @@
         <v>82</v>
       </c>
       <c r="H375" t="s">
-        <v>9</v>
-      </c>
-      <c r="I375" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>23</v>
       </c>
@@ -12697,13 +12042,10 @@
         <v>82</v>
       </c>
       <c r="H376" t="s">
-        <v>9</v>
-      </c>
-      <c r="I376" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>36</v>
       </c>
@@ -12726,13 +12068,10 @@
         <v>82</v>
       </c>
       <c r="H377" t="s">
-        <v>30</v>
-      </c>
-      <c r="I377" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>37</v>
       </c>
@@ -12755,13 +12094,10 @@
         <v>82</v>
       </c>
       <c r="H378" t="s">
-        <v>24</v>
-      </c>
-      <c r="I378" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>31</v>
       </c>
@@ -12784,13 +12120,10 @@
         <v>82</v>
       </c>
       <c r="H379" t="s">
-        <v>24</v>
-      </c>
-      <c r="I379" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>38</v>
       </c>
@@ -12813,13 +12146,10 @@
         <v>82</v>
       </c>
       <c r="H380" t="s">
-        <v>9</v>
-      </c>
-      <c r="I380" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>36</v>
       </c>
@@ -12842,13 +12172,10 @@
         <v>82</v>
       </c>
       <c r="H381" t="s">
-        <v>9</v>
-      </c>
-      <c r="I381" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>36</v>
       </c>
@@ -12871,13 +12198,10 @@
         <v>82</v>
       </c>
       <c r="H382" t="s">
-        <v>24</v>
-      </c>
-      <c r="I382" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>36</v>
       </c>
@@ -12900,13 +12224,10 @@
         <v>82</v>
       </c>
       <c r="H383" t="s">
-        <v>24</v>
-      </c>
-      <c r="I383" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>34</v>
       </c>
@@ -12929,13 +12250,10 @@
         <v>82</v>
       </c>
       <c r="H384" t="s">
-        <v>24</v>
-      </c>
-      <c r="I384" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>38</v>
       </c>
@@ -12958,13 +12276,10 @@
         <v>82</v>
       </c>
       <c r="H385" t="s">
-        <v>24</v>
-      </c>
-      <c r="I385" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>32</v>
       </c>
@@ -12987,13 +12302,10 @@
         <v>82</v>
       </c>
       <c r="H386" t="s">
-        <v>24</v>
-      </c>
-      <c r="I386" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>38</v>
       </c>
@@ -13016,13 +12328,10 @@
         <v>82</v>
       </c>
       <c r="H387" t="s">
-        <v>24</v>
-      </c>
-      <c r="I387" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>25</v>
       </c>
@@ -13045,13 +12354,10 @@
         <v>82</v>
       </c>
       <c r="H388" t="s">
-        <v>9</v>
-      </c>
-      <c r="I388" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>38</v>
       </c>
@@ -13074,13 +12380,10 @@
         <v>82</v>
       </c>
       <c r="H389" t="s">
-        <v>9</v>
-      </c>
-      <c r="I389" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>26</v>
       </c>
@@ -13103,13 +12406,10 @@
         <v>82</v>
       </c>
       <c r="H390" t="s">
-        <v>9</v>
-      </c>
-      <c r="I390" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>22</v>
       </c>
@@ -13132,13 +12432,10 @@
         <v>82</v>
       </c>
       <c r="H391" t="s">
-        <v>9</v>
-      </c>
-      <c r="I391" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>32</v>
       </c>
@@ -13161,13 +12458,10 @@
         <v>82</v>
       </c>
       <c r="H392" t="s">
-        <v>24</v>
-      </c>
-      <c r="I392" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>36</v>
       </c>
@@ -13190,13 +12484,10 @@
         <v>82</v>
       </c>
       <c r="H393" t="s">
-        <v>9</v>
-      </c>
-      <c r="I393" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>27</v>
       </c>
@@ -13219,13 +12510,10 @@
         <v>82</v>
       </c>
       <c r="H394" t="s">
-        <v>9</v>
-      </c>
-      <c r="I394" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>27</v>
       </c>
@@ -13248,13 +12536,10 @@
         <v>82</v>
       </c>
       <c r="H395" t="s">
-        <v>9</v>
-      </c>
-      <c r="I395" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>44</v>
       </c>
@@ -13277,13 +12562,10 @@
         <v>82</v>
       </c>
       <c r="H396" t="s">
-        <v>30</v>
-      </c>
-      <c r="I396" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>32</v>
       </c>
@@ -13306,13 +12588,10 @@
         <v>82</v>
       </c>
       <c r="H397" t="s">
-        <v>9</v>
-      </c>
-      <c r="I397" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>28</v>
       </c>
@@ -13335,13 +12614,10 @@
         <v>82</v>
       </c>
       <c r="H398" t="s">
-        <v>9</v>
-      </c>
-      <c r="I398" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>31</v>
       </c>
@@ -13364,13 +12640,214 @@
         <v>82</v>
       </c>
       <c r="H399" t="s">
-        <v>9</v>
-      </c>
-      <c r="I399" t="s">
-        <v>316</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B366B1-62BD-48ED-A46E-A57BA4714E24}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="e" cm="1" vm="3">
+        <f t="array" ref="A4">_xlfn._xlws.PY(1,0,helper!B15,'dynamic measures'!B2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{E83080AE-7E02-4522-910D-7113B30AB89F}">
+      <formula1>mpg_dimensions</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{D44C593E-F71C-4451-83D4-5F277983A99B}">
+      <formula1>operations</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1570A97A-8B77-4AE6-8BEE-8BE71C335A08}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="17.58984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19.04296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3:D9">_xlfn._xlws.PY(2,0)</f>
+        <v>mpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="str">
+        <v>cylinders</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="str">
+        <v>displacement</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="str">
+        <v>horsepower</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="str">
+        <v>weight</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="str">
+        <v>acceleration</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="str">
+        <v>model_year</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'dynamic measures'!B1</f>
+        <v>Count</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="str">
+        <f>_xlfn.XLOOKUP(B14, agg_methods[Operation], agg_methods[Method])</f>
+        <v>count</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="e" vm="2">
+        <f>_xlfn.CONCAT('dynamic measures'!B1, " of ", 'dynamic measures'!B2, " by origin")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/python-in-excel-dynamic-measures-demo.xlsx
+++ b/python-in-excel-dynamic-measures-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC2416-AEE2-4EAD-8840-FFC4F0B0D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB306A74-D59D-4A02-B0B3-00B04B8C8297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,25 +53,11 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
@@ -81,15 +67,9 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="1">
     <bk>
       <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -118,8 +98,10 @@
 mpg_df</code>
     </pythonScript>
     <pythonScript>
-      <code xml:space="preserve">mpg_selected_measure = xl(%P2%)
+      <code xml:space="preserve"># Data inputs
+mpg_selected_measure = xl(%P2%)
 mpg_selected_agg = xl(%P3%)
+# Group data by selected measure/agg, sort results descending
 getattr(mpg_df.groupby('origin')[mpg_selected_agg], mpg_selected_measure)().sort_values(ascending=False)
 </code>
     </pythonScript>
@@ -131,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="35">
   <si>
     <t>mpg</t>
   </si>
@@ -196,21 +178,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Choose method:</t>
-  </si>
-  <si>
-    <t>To choose dimensions:</t>
-  </si>
-  <si>
-    <t>To choose measures:</t>
-  </si>
-  <si>
-    <t>Operation selected</t>
-  </si>
-  <si>
-    <t>Method to use</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
@@ -239,6 +206,18 @@
   </si>
   <si>
     <t>For plot label</t>
+  </si>
+  <si>
+    <t>Method selected by user:</t>
+  </si>
+  <si>
+    <t>Choose aggregation:</t>
+  </si>
+  <si>
+    <t>To choose aggregation method:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To choose measure: </t>
   </si>
 </sst>
 </file>
@@ -862,11 +841,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>helper!$B$19</c:f>
+          <c:f>helper!$B$15</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>#CALC!</c:v>
+              <c:v>Min of displacement by origin</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -884,7 +863,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -910,6 +889,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dynamic measures'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>displacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -920,21 +910,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dynamic measures'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>usa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>japan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>europe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dynamic measures'!$A$4</c:f>
+              <c:f>'dynamic measures'!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB3A-46F3-9048-0AB7894D2998}"/>
+              <c16:uniqueId val="{00000000-5933-4326-9A06-9AFE1139AF78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -948,11 +961,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="945464864"/>
-        <c:axId val="945463904"/>
+        <c:axId val="1680449712"/>
+        <c:axId val="1680453072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="945464864"/>
+        <c:axId val="1680449712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +993,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -995,7 +1008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945463904"/>
+        <c:crossAx val="1680453072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1003,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="945463904"/>
+        <c:axId val="1680453072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1038,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1040,7 +1053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945464864"/>
+        <c:crossAx val="1680449712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,29 +1649,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2162</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>242238</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341313</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>814915</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B405F8AA-8320-4A67-89B3-8F69C02E6579}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A6DC18-B77C-16E6-0F31-0A606AB4BB06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1831,7 +1842,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1851,18 +1862,11 @@
     <v>2</v>
     <v>3</v>
   </rv>
-  <rv s="3">
-    <v>14</v>
-  </rv>
-  <rv s="4">
-    <v>15</v>
-    <v>0</v>
-  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -1878,13 +1882,6 @@
     <k n="preview" t="r"/>
     <k n="_Provider" t="spb"/>
     <k n="provider" t="spb"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
   </s>
 </rvStructures>
 </file>
@@ -12653,42 +12650,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B366B1-62BD-48ED-A46E-A57BA4714E24}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="e" cm="1" vm="3">
-        <f t="array" ref="A4">_xlfn._xlws.PY(1,0,helper!B15,'dynamic measures'!B2)</f>
-        <v>#VALUE!</v>
+      <c r="A4" t="str" cm="1">
+        <f t="array" ref="A4:B7">_xlfn._xlws.PY(1,0,helper!B13,'dynamic measures'!B2)</f>
+        <v>origin</v>
+      </c>
+      <c r="B4" t="str">
+        <v>displacement</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="str">
+        <v>usa</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="str">
+        <v>japan</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="str">
+        <v>europe</v>
+      </c>
+      <c r="B7">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{E83080AE-7E02-4522-910D-7113B30AB89F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{E83080AE-7E02-4522-910D-7113B30AB89F}">
       <formula1>mpg_dimensions</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{D44C593E-F71C-4451-83D4-5F277983A99B}">
@@ -12702,25 +12726,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1570A97A-8B77-4AE6-8BEE-8BE71C335A08}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="2.76953125" customWidth="1"/>
     <col min="4" max="4" width="19.04296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12730,6 +12755,7 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3:D9">_xlfn._xlws.PY(2,0)</f>
         <v>mpg</v>
@@ -12740,8 +12766,9 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="str">
         <v>cylinders</v>
       </c>
@@ -12751,8 +12778,9 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="str">
         <v>displacement</v>
       </c>
@@ -12762,8 +12790,9 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" t="str">
         <v>horsepower</v>
       </c>
@@ -12773,8 +12802,9 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" t="str">
         <v>weight</v>
       </c>
@@ -12784,8 +12814,9 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="str">
         <v>acceleration</v>
       </c>
@@ -12795,8 +12826,9 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" t="str">
         <v>model_year</v>
       </c>
@@ -12806,42 +12838,35 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="str">
-        <f>'dynamic measures'!B1</f>
-        <v>Count</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="str">
+        <f>_xlfn.XLOOKUP('dynamic measures'!B1, agg_methods[Operation], agg_methods[Method])</f>
+        <v>min</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" t="str">
-        <f>_xlfn.XLOOKUP(B14, agg_methods[Operation], agg_methods[Method])</f>
-        <v>count</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="e" vm="2">
         <f>_xlfn.CONCAT('dynamic measures'!B1, " of ", 'dynamic measures'!B2, " by origin")</f>
-        <v>#VALUE!</v>
+        <v>Min of displacement by origin</v>
       </c>
     </row>
   </sheetData>
